--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AW$165</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="282">
   <si>
     <t>PSW</t>
   </si>
@@ -880,6 +880,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Nums of defects found</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1326,11 +1329,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1342,6 +1370,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -22379,18 +22428,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A118">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"PSW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"ASW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:A165">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"PSW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"ASW"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22419,10 +22468,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:U37"/>
+  <dimension ref="B6:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22430,6 +22479,7 @@
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="3:21" x14ac:dyDescent="0.25">
@@ -23297,12 +23347,505 @@
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
     </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="94" t="s">
+        <v>274</v>
+      </c>
+      <c r="C40" s="94" t="s">
+        <v>275</v>
+      </c>
+      <c r="D40" s="94" t="s">
+        <v>278</v>
+      </c>
+      <c r="E40" s="94" t="s">
+        <v>253</v>
+      </c>
+      <c r="F40" s="94" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C41" s="96" t="s">
+        <v>276</v>
+      </c>
+      <c r="D41" s="13">
+        <v>8533.125</v>
+      </c>
+      <c r="E41" s="13">
+        <v>387.86931818181819</v>
+      </c>
+      <c r="F41" s="95">
+        <f>E41/450</f>
+        <v>0.86193181818181819</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C42" s="96" t="s">
+        <v>276</v>
+      </c>
+      <c r="D42" s="13">
+        <v>8773.4410000000007</v>
+      </c>
+      <c r="E42" s="13">
+        <v>398.79277272727273</v>
+      </c>
+      <c r="F42" s="95">
+        <f t="shared" ref="F42:F51" si="1">E42/450</f>
+        <v>0.88620616161616161</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C43" s="96" t="s">
+        <v>277</v>
+      </c>
+      <c r="D43" s="13">
+        <v>7959.6153846153848</v>
+      </c>
+      <c r="E43" s="13">
+        <v>361.80069930069931</v>
+      </c>
+      <c r="F43" s="95">
+        <f t="shared" si="1"/>
+        <v>0.80400155400155404</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="96" t="s">
+        <v>277</v>
+      </c>
+      <c r="D44" s="13">
+        <v>8517.1538461538457</v>
+      </c>
+      <c r="E44" s="13">
+        <v>387.14335664335664</v>
+      </c>
+      <c r="F44" s="95">
+        <f t="shared" si="1"/>
+        <v>0.86031857031857029</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="96" t="s">
+        <v>276</v>
+      </c>
+      <c r="D45" s="13">
+        <v>8771.3534615384615</v>
+      </c>
+      <c r="E45" s="13">
+        <v>398.69788461538462</v>
+      </c>
+      <c r="F45" s="95">
+        <f t="shared" si="1"/>
+        <v>0.88599529914529918</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="97" t="s">
+        <v>266</v>
+      </c>
+      <c r="C46" s="97" t="s">
+        <v>276</v>
+      </c>
+      <c r="D46" s="97">
+        <v>9686.5670000000009</v>
+      </c>
+      <c r="E46" s="97">
+        <v>440.29850000000005</v>
+      </c>
+      <c r="F46" s="95">
+        <f t="shared" si="1"/>
+        <v>0.97844111111111121</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C47" s="96" t="s">
+        <v>276</v>
+      </c>
+      <c r="D47" s="13">
+        <v>4962.5670000000009</v>
+      </c>
+      <c r="E47" s="13">
+        <v>451.14245454545465</v>
+      </c>
+      <c r="F47" s="95">
+        <f t="shared" si="1"/>
+        <v>1.0025387878787881</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C48" s="96" t="s">
+        <v>276</v>
+      </c>
+      <c r="D48" s="13">
+        <v>8267.6910000000007</v>
+      </c>
+      <c r="E48" s="13">
+        <v>375.80413636363642</v>
+      </c>
+      <c r="F48" s="95">
+        <f t="shared" si="1"/>
+        <v>0.83512030303030316</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="98" t="s">
+        <v>269</v>
+      </c>
+      <c r="C49" s="98" t="s">
+        <v>277</v>
+      </c>
+      <c r="D49" s="98">
+        <v>10267.307692307691</v>
+      </c>
+      <c r="E49" s="98">
+        <v>466.69580419580416</v>
+      </c>
+      <c r="F49" s="95">
+        <f t="shared" si="1"/>
+        <v>1.0371017871017869</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C50" s="96" t="s">
+        <v>277</v>
+      </c>
+      <c r="D50" s="13">
+        <v>7612.3846153846152</v>
+      </c>
+      <c r="E50" s="13">
+        <v>346.01748251748251</v>
+      </c>
+      <c r="F50" s="95">
+        <f t="shared" si="1"/>
+        <v>0.76892773892773891</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C51" s="96" t="s">
+        <v>277</v>
+      </c>
+      <c r="D51" s="13">
+        <v>7017.3846153846152</v>
+      </c>
+      <c r="E51" s="13">
+        <v>318.97202797202794</v>
+      </c>
+      <c r="F51" s="95">
+        <f t="shared" si="1"/>
+        <v>0.70882672882672881</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="96" t="s">
+        <v>280</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13">
+        <f>SUM(D41:D51)</f>
+        <v>90368.590615384601</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="94" t="s">
+        <v>274</v>
+      </c>
+      <c r="C57" s="94" t="s">
+        <v>275</v>
+      </c>
+      <c r="D57" s="94" t="s">
+        <v>278</v>
+      </c>
+      <c r="E57" s="94" t="s">
+        <v>253</v>
+      </c>
+      <c r="F57" s="94" t="s">
+        <v>279</v>
+      </c>
+      <c r="G57" s="94" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C58" s="96" t="s">
+        <v>276</v>
+      </c>
+      <c r="D58" s="102">
+        <v>9435.375</v>
+      </c>
+      <c r="E58" s="102">
+        <v>428.88068181818181</v>
+      </c>
+      <c r="F58" s="101">
+        <f>E58/450</f>
+        <v>0.95306818181818176</v>
+      </c>
+      <c r="G58" s="99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="96" t="s">
+        <v>276</v>
+      </c>
+      <c r="D59" s="102">
+        <v>9526.5</v>
+      </c>
+      <c r="E59" s="102">
+        <v>433.02272727272725</v>
+      </c>
+      <c r="F59" s="101">
+        <f t="shared" ref="F59:F68" si="2">E59/450</f>
+        <v>0.96227272727272728</v>
+      </c>
+      <c r="G59" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="96" t="s">
+        <v>277</v>
+      </c>
+      <c r="D60" s="102">
+        <v>10198.923076923078</v>
+      </c>
+      <c r="E60" s="102">
+        <v>463.58741258741264</v>
+      </c>
+      <c r="F60" s="101">
+        <f t="shared" si="2"/>
+        <v>1.0301942501942503</v>
+      </c>
+      <c r="G60" s="99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="98" t="s">
+        <v>277</v>
+      </c>
+      <c r="D61" s="104">
+        <v>13061.307692307691</v>
+      </c>
+      <c r="E61" s="102">
+        <v>593.69580419580416</v>
+      </c>
+      <c r="F61" s="101">
+        <f t="shared" si="2"/>
+        <v>1.3193240093240093</v>
+      </c>
+      <c r="G61" s="99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="97" t="s">
+        <v>276</v>
+      </c>
+      <c r="D62" s="103">
+        <v>10449.000000000002</v>
+      </c>
+      <c r="E62" s="102">
+        <v>474.95454545454555</v>
+      </c>
+      <c r="F62" s="101">
+        <f t="shared" si="2"/>
+        <v>1.0554545454545456</v>
+      </c>
+      <c r="G62" s="99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C63" s="96" t="s">
+        <v>276</v>
+      </c>
+      <c r="D63" s="102">
+        <v>9671.85</v>
+      </c>
+      <c r="E63" s="102">
+        <v>439.62954545454545</v>
+      </c>
+      <c r="F63" s="101">
+        <f t="shared" si="2"/>
+        <v>0.97695454545454541</v>
+      </c>
+      <c r="G63" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C64" s="96" t="s">
+        <v>276</v>
+      </c>
+      <c r="D64" s="102">
+        <v>8742.6000000000022</v>
+      </c>
+      <c r="E64" s="102">
+        <v>397.39090909090919</v>
+      </c>
+      <c r="F64" s="101">
+        <f t="shared" si="2"/>
+        <v>0.88309090909090926</v>
+      </c>
+      <c r="G64" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C65" s="96" t="s">
+        <v>276</v>
+      </c>
+      <c r="D65" s="102">
+        <v>10441.23076923077</v>
+      </c>
+      <c r="E65" s="102">
+        <v>474.60139860139861</v>
+      </c>
+      <c r="F65" s="101">
+        <f t="shared" si="2"/>
+        <v>1.0546697746697746</v>
+      </c>
+      <c r="G65" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C66" s="96" t="s">
+        <v>277</v>
+      </c>
+      <c r="D66" s="102">
+        <v>8481.461538461539</v>
+      </c>
+      <c r="E66" s="102">
+        <v>385.52097902097904</v>
+      </c>
+      <c r="F66" s="101">
+        <f t="shared" si="2"/>
+        <v>0.85671328671328673</v>
+      </c>
+      <c r="G66" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C67" s="96" t="s">
+        <v>277</v>
+      </c>
+      <c r="D67" s="102">
+        <v>10355.653846153846</v>
+      </c>
+      <c r="E67" s="102">
+        <v>470.71153846153845</v>
+      </c>
+      <c r="F67" s="101">
+        <f t="shared" si="2"/>
+        <v>1.046025641025641</v>
+      </c>
+      <c r="G67" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="96" t="s">
+        <v>280</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="102">
+        <f>SUM(D57:D67)</f>
+        <v>100363.90192307692</v>
+      </c>
+      <c r="E68" s="102">
+        <v>456.19955419580418</v>
+      </c>
+      <c r="F68" s="101">
+        <f t="shared" si="2"/>
+        <v>1.0137767871017871</v>
+      </c>
+      <c r="G68" s="99">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="F26:F36">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41:F51">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58:F68">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
